--- a/output/sxsw2019.xlsx
+++ b/output/sxsw2019.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dharmesh/gender-avenger/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="832">
   <si>
     <t>first_name</t>
   </si>
@@ -2528,24 +2516,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -2560,40 +2547,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2881,16 +2854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313:XFD313"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2904,8 +2881,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2921,8 +2898,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2938,8 +2915,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2955,8 +2932,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2972,8 +2949,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2989,8 +2966,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2999,12 +2976,13 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
+      <c r="D7" t="s"/>
       <c r="E7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -3020,8 +2998,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -3037,8 +3015,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -3054,8 +3032,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -3071,8 +3049,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -3088,8 +3066,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -3105,8 +3083,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -3122,8 +3100,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -3139,8 +3117,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -3156,8 +3134,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -3173,8 +3151,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -3190,8 +3168,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -3207,8 +3185,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -3224,8 +3202,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -3241,8 +3219,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -3258,8 +3236,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -3275,8 +3253,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -3292,8 +3270,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -3309,8 +3287,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -3326,8 +3304,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -3343,8 +3321,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -3360,8 +3338,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -3377,8 +3355,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -3394,8 +3372,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -3411,8 +3389,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -3425,11 +3403,11 @@
         <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -3442,11 +3420,11 @@
         <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -3462,8 +3440,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -3479,8 +3457,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -3496,8 +3474,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -3513,8 +3491,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -3530,8 +3508,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -3547,8 +3525,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -3564,8 +3542,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -3581,8 +3559,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -3598,8 +3576,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -3615,8 +3593,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -3632,8 +3610,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -3649,8 +3627,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -3666,8 +3644,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -3683,8 +3661,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -3700,8 +3678,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -3717,8 +3695,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -3734,8 +3712,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -3751,8 +3729,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -3768,8 +3746,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -3785,8 +3763,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -3802,8 +3780,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -3812,12 +3790,13 @@
       <c r="C55" t="s">
         <v>152</v>
       </c>
+      <c r="D55" t="s"/>
       <c r="E55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -3833,8 +3812,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -3850,8 +3829,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -3867,8 +3846,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -3884,8 +3863,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -3901,8 +3880,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -3918,8 +3897,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -3935,8 +3914,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
@@ -3952,8 +3931,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
@@ -3969,8 +3948,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -3986,8 +3965,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
@@ -4003,8 +3982,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -4020,8 +3999,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -4037,8 +4016,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -4054,8 +4033,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
@@ -4071,8 +4050,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
@@ -4088,8 +4067,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -4105,8 +4084,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -4115,12 +4094,13 @@
       <c r="C73" t="s">
         <v>194</v>
       </c>
+      <c r="D73" t="s"/>
       <c r="E73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -4136,8 +4116,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
@@ -4153,8 +4133,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
@@ -4170,8 +4150,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -4187,8 +4167,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -4204,8 +4184,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -4221,8 +4201,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -4238,8 +4218,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -4255,8 +4235,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
@@ -4272,8 +4252,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
@@ -4289,8 +4269,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
@@ -4306,8 +4286,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
@@ -4323,8 +4303,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
@@ -4340,8 +4320,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
@@ -4357,8 +4337,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
@@ -4374,8 +4354,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
@@ -4391,8 +4371,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
@@ -4408,8 +4388,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
@@ -4425,8 +4405,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
@@ -4442,8 +4422,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
@@ -4459,8 +4439,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
@@ -4476,8 +4456,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
@@ -4493,8 +4473,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
@@ -4510,8 +4490,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
@@ -4527,8 +4507,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
@@ -4544,8 +4524,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
@@ -4561,8 +4541,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
@@ -4578,8 +4558,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
@@ -4595,8 +4575,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
@@ -4612,8 +4592,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
@@ -4629,8 +4609,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
@@ -4646,8 +4626,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
@@ -4663,8 +4643,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
@@ -4680,8 +4660,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
@@ -4697,8 +4677,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
@@ -4714,8 +4694,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
@@ -4731,8 +4711,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
@@ -4748,8 +4728,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
@@ -4765,8 +4745,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
@@ -4782,8 +4762,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
@@ -4799,8 +4779,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
@@ -4816,8 +4796,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
@@ -4833,8 +4813,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
@@ -4850,8 +4830,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
@@ -4860,12 +4840,13 @@
       <c r="C117" t="s">
         <v>299</v>
       </c>
+      <c r="D117" t="s"/>
       <c r="E117" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
@@ -4881,8 +4862,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
@@ -4898,8 +4879,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
@@ -4915,8 +4896,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
@@ -4932,8 +4913,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
@@ -4949,8 +4930,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
@@ -4966,8 +4947,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
@@ -4983,8 +4964,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
@@ -5000,8 +4981,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
@@ -5017,8 +4998,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
@@ -5027,12 +5008,13 @@
       <c r="C127" t="s">
         <v>326</v>
       </c>
+      <c r="D127" t="s"/>
       <c r="E127" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
@@ -5048,8 +5030,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
@@ -5058,12 +5040,13 @@
       <c r="C129" t="s">
         <v>330</v>
       </c>
+      <c r="D129" t="s"/>
       <c r="E129" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
@@ -5079,8 +5062,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
@@ -5096,8 +5079,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
@@ -5113,8 +5096,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
@@ -5130,8 +5113,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
@@ -5147,8 +5130,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
@@ -5164,8 +5147,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
@@ -5181,8 +5164,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
@@ -5198,8 +5181,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
@@ -5215,8 +5198,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
@@ -5232,8 +5215,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
@@ -5249,8 +5232,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
@@ -5259,12 +5242,13 @@
       <c r="C141" t="s">
         <v>356</v>
       </c>
+      <c r="D141" t="s"/>
       <c r="E141" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
@@ -5280,8 +5264,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
@@ -5297,8 +5281,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
@@ -5314,8 +5298,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
@@ -5331,8 +5315,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
@@ -5348,8 +5332,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
@@ -5365,8 +5349,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
@@ -5382,8 +5366,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
@@ -5399,8 +5383,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
@@ -5416,8 +5400,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
@@ -5433,8 +5417,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
@@ -5450,8 +5434,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
@@ -5467,8 +5451,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
@@ -5484,8 +5468,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
@@ -5501,8 +5485,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
@@ -5518,8 +5502,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
@@ -5535,8 +5519,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
@@ -5552,8 +5536,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
@@ -5569,8 +5553,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
@@ -5586,8 +5570,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
@@ -5603,8 +5587,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
@@ -5620,8 +5604,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
@@ -5637,8 +5621,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
@@ -5654,8 +5638,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
@@ -5671,8 +5655,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
@@ -5688,8 +5672,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
@@ -5705,8 +5689,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
@@ -5722,8 +5706,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
@@ -5739,8 +5723,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
@@ -5756,8 +5740,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
@@ -5773,8 +5757,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
@@ -5790,8 +5774,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
@@ -5807,8 +5791,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
@@ -5824,8 +5808,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
@@ -5841,8 +5825,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
@@ -5851,12 +5835,13 @@
       <c r="C176" t="s">
         <v>438</v>
       </c>
+      <c r="D176" t="s"/>
       <c r="E176" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
@@ -5872,8 +5857,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
@@ -5889,8 +5874,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
@@ -5906,8 +5891,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
@@ -5923,8 +5908,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
@@ -5940,8 +5925,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
@@ -5957,8 +5942,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
@@ -5974,8 +5959,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
@@ -5991,8 +5976,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
@@ -6008,8 +5993,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+    <row r="186" spans="1:5">
+      <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
@@ -6025,8 +6010,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
@@ -6042,8 +6027,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
@@ -6059,8 +6044,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
@@ -6076,8 +6061,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
@@ -6093,8 +6078,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+    <row r="191" spans="1:5">
+      <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
@@ -6110,8 +6095,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
@@ -6127,8 +6112,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+    <row r="193" spans="1:5">
+      <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
@@ -6144,8 +6129,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
@@ -6161,8 +6146,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+    <row r="195" spans="1:5">
+      <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
@@ -6178,8 +6163,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+    <row r="196" spans="1:5">
+      <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
@@ -6195,8 +6180,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+    <row r="197" spans="1:5">
+      <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
@@ -6212,8 +6197,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+    <row r="198" spans="1:5">
+      <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
@@ -6229,8 +6214,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
@@ -6246,8 +6231,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
@@ -6263,8 +6248,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
@@ -6280,8 +6265,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+    <row r="202" spans="1:5">
+      <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
@@ -6297,8 +6282,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
@@ -6314,8 +6299,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
@@ -6331,8 +6316,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
@@ -6348,8 +6333,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
@@ -6365,8 +6350,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
@@ -6382,8 +6367,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
@@ -6399,8 +6384,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
@@ -6416,8 +6401,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
@@ -6433,8 +6418,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+    <row r="211" spans="1:5">
+      <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
@@ -6450,8 +6435,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
@@ -6467,8 +6452,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+    <row r="213" spans="1:5">
+      <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
@@ -6484,8 +6469,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+    <row r="214" spans="1:5">
+      <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
@@ -6501,8 +6486,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
@@ -6518,8 +6503,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
@@ -6535,8 +6520,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
@@ -6552,8 +6537,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
@@ -6562,12 +6547,13 @@
       <c r="C218" t="s">
         <v>524</v>
       </c>
+      <c r="D218" t="s"/>
       <c r="E218" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
@@ -6583,8 +6569,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
@@ -6600,8 +6586,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+    <row r="221" spans="1:5">
+      <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
@@ -6617,8 +6603,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+    <row r="222" spans="1:5">
+      <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
@@ -6634,8 +6620,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
@@ -6651,8 +6637,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
@@ -6668,8 +6654,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
+    <row r="225" spans="1:5">
+      <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
@@ -6685,8 +6671,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
+    <row r="226" spans="1:5">
+      <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
@@ -6702,8 +6688,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
@@ -6719,8 +6705,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
@@ -6736,8 +6722,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+    <row r="229" spans="1:5">
+      <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
@@ -6753,8 +6739,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
@@ -6770,8 +6756,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
@@ -6787,8 +6773,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
@@ -6804,8 +6790,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+    <row r="233" spans="1:5">
+      <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
@@ -6821,8 +6807,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
@@ -6838,8 +6824,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
@@ -6855,8 +6841,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
@@ -6872,8 +6858,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
@@ -6889,8 +6875,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
@@ -6906,8 +6892,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
@@ -6923,8 +6909,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+    <row r="240" spans="1:5">
+      <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
@@ -6940,8 +6926,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+    <row r="241" spans="1:5">
+      <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
@@ -6957,8 +6943,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+    <row r="242" spans="1:5">
+      <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
@@ -6974,8 +6960,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+    <row r="243" spans="1:5">
+      <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="s">
@@ -6991,8 +6977,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+    <row r="244" spans="1:5">
+      <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="s">
@@ -7008,8 +6994,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="s">
@@ -7018,12 +7004,13 @@
       <c r="C245" t="s">
         <v>584</v>
       </c>
+      <c r="D245" t="s"/>
       <c r="E245" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="s">
@@ -7039,8 +7026,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="s">
@@ -7056,8 +7043,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+    <row r="248" spans="1:5">
+      <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="s">
@@ -7066,12 +7053,13 @@
       <c r="C248" t="s">
         <v>590</v>
       </c>
+      <c r="D248" t="s"/>
       <c r="E248" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+    <row r="249" spans="1:5">
+      <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="s">
@@ -7087,8 +7075,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="s">
@@ -7104,8 +7092,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+    <row r="251" spans="1:5">
+      <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="s">
@@ -7121,8 +7109,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+    <row r="252" spans="1:5">
+      <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="s">
@@ -7138,8 +7126,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="s">
@@ -7155,8 +7143,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
       <c r="B254" t="s">
@@ -7172,8 +7160,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+    <row r="255" spans="1:5">
+      <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="s">
@@ -7189,8 +7177,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+    <row r="256" spans="1:5">
+      <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="s">
@@ -7206,8 +7194,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
+    <row r="257" spans="1:5">
+      <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="s">
@@ -7223,8 +7211,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+    <row r="258" spans="1:5">
+      <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="s">
@@ -7240,8 +7228,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+    <row r="259" spans="1:5">
+      <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="s">
@@ -7257,8 +7245,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
+    <row r="260" spans="1:5">
+      <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="s">
@@ -7274,8 +7262,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
+    <row r="261" spans="1:5">
+      <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="s">
@@ -7291,8 +7279,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="s">
@@ -7308,8 +7296,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="s">
@@ -7325,8 +7313,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+    <row r="264" spans="1:5">
+      <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="s">
@@ -7342,8 +7330,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+    <row r="265" spans="1:5">
+      <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="s">
@@ -7359,8 +7347,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+    <row r="266" spans="1:5">
+      <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="s">
@@ -7376,8 +7364,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+    <row r="267" spans="1:5">
+      <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="s">
@@ -7393,8 +7381,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="s">
@@ -7410,8 +7398,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="s">
@@ -7427,8 +7415,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+    <row r="270" spans="1:5">
+      <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="s">
@@ -7444,8 +7432,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="s">
@@ -7461,8 +7449,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="s">
@@ -7478,8 +7466,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
       <c r="B273" t="s">
@@ -7495,8 +7483,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+    <row r="274" spans="1:5">
+      <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="s">
@@ -7512,8 +7500,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+    <row r="275" spans="1:5">
+      <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
       <c r="B275" t="s">
@@ -7529,8 +7517,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
       <c r="B276" t="s">
@@ -7546,8 +7534,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
       <c r="B277" t="s">
@@ -7563,8 +7551,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+    <row r="278" spans="1:5">
+      <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
       <c r="B278" t="s">
@@ -7580,8 +7568,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+    <row r="279" spans="1:5">
+      <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
       <c r="B279" t="s">
@@ -7597,8 +7585,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+    <row r="280" spans="1:5">
+      <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="s">
@@ -7614,8 +7602,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+    <row r="281" spans="1:5">
+      <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
       <c r="B281" t="s">
@@ -7631,8 +7619,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+    <row r="282" spans="1:5">
+      <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
       <c r="B282" t="s">
@@ -7648,8 +7636,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+    <row r="283" spans="1:5">
+      <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
       <c r="B283" t="s">
@@ -7665,8 +7653,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+    <row r="284" spans="1:5">
+      <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
       <c r="B284" t="s">
@@ -7682,8 +7670,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+    <row r="285" spans="1:5">
+      <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
       <c r="B285" t="s">
@@ -7699,8 +7687,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+    <row r="286" spans="1:5">
+      <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
       <c r="B286" t="s">
@@ -7716,8 +7704,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+    <row r="287" spans="1:5">
+      <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
       <c r="B287" t="s">
@@ -7733,8 +7721,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="s">
@@ -7750,8 +7738,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+    <row r="289" spans="1:5">
+      <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
       <c r="B289" t="s">
@@ -7767,8 +7755,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+    <row r="290" spans="1:5">
+      <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
       <c r="B290" t="s">
@@ -7784,8 +7772,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+    <row r="291" spans="1:5">
+      <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="s">
@@ -7794,12 +7782,13 @@
       <c r="C291" t="s">
         <v>694</v>
       </c>
+      <c r="D291" t="s"/>
       <c r="E291" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+    <row r="292" spans="1:5">
+      <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="s">
@@ -7815,8 +7804,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
+    <row r="293" spans="1:5">
+      <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
       <c r="B293" t="s">
@@ -7832,8 +7821,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
+    <row r="294" spans="1:5">
+      <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
       <c r="B294" t="s">
@@ -7849,8 +7838,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
+    <row r="295" spans="1:5">
+      <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
       <c r="B295" t="s">
@@ -7859,12 +7848,13 @@
       <c r="C295" t="s">
         <v>705</v>
       </c>
+      <c r="D295" t="s"/>
       <c r="E295" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
+    <row r="296" spans="1:5">
+      <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="s">
@@ -7880,8 +7870,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+    <row r="297" spans="1:5">
+      <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
       <c r="B297" t="s">
@@ -7897,8 +7887,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+    <row r="298" spans="1:5">
+      <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
       <c r="B298" t="s">
@@ -7914,8 +7904,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+    <row r="299" spans="1:5">
+      <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
       <c r="B299" t="s">
@@ -7931,8 +7921,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+    <row r="300" spans="1:5">
+      <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
       <c r="B300" t="s">
@@ -7948,8 +7938,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+    <row r="301" spans="1:5">
+      <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
       <c r="B301" t="s">
@@ -7965,8 +7955,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
+    <row r="302" spans="1:5">
+      <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B302" t="s">
@@ -7982,8 +7972,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
+    <row r="303" spans="1:5">
+      <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
       <c r="B303" t="s">
@@ -7999,8 +7989,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
+    <row r="304" spans="1:5">
+      <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
       <c r="B304" t="s">
@@ -8016,8 +8006,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
+    <row r="305" spans="1:5">
+      <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="s">
@@ -8033,8 +8023,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
+    <row r="306" spans="1:5">
+      <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
       <c r="B306" t="s">
@@ -8050,8 +8040,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
+    <row r="307" spans="1:5">
+      <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
       <c r="B307" t="s">
@@ -8067,8 +8057,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
+    <row r="308" spans="1:5">
+      <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
       <c r="B308" t="s">
@@ -8084,8 +8074,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="s">
@@ -8101,8 +8091,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
       <c r="B310" t="s">
@@ -8118,8 +8108,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
+    <row r="311" spans="1:5">
+      <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
       <c r="B311" t="s">
@@ -8135,8 +8125,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
+    <row r="312" spans="1:5">
+      <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="s">
@@ -8152,60 +8142,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
-        <v>312</v>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C313" t="s">
-        <v>746</v>
+        <v>87</v>
       </c>
       <c r="D313" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E313" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>745</v>
+      </c>
+      <c r="C314" t="s">
+        <v>746</v>
+      </c>
+      <c r="D314" t="s">
+        <v>747</v>
+      </c>
+      <c r="E314" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>748</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C315" t="s">
         <v>749</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D315" t="s">
         <v>19</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E315" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="n">
         <v>314</v>
-      </c>
-      <c r="B315" t="s">
-        <v>750</v>
-      </c>
-      <c r="C315" t="s">
-        <v>751</v>
-      </c>
-      <c r="D315" t="s">
-        <v>752</v>
-      </c>
-      <c r="E315" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
-        <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>750</v>
@@ -8214,55 +8204,55 @@
         <v>751</v>
       </c>
       <c r="D316" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E316" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>750</v>
+      </c>
+      <c r="C317" t="s">
+        <v>751</v>
+      </c>
+      <c r="D317" t="s">
+        <v>753</v>
+      </c>
+      <c r="E317" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>754</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C318" t="s">
         <v>755</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D318" t="s">
         <v>756</v>
       </c>
-      <c r="E317" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
+      <c r="E318" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>757</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C319" t="s">
         <v>758</v>
-      </c>
-      <c r="D318" t="s">
-        <v>79</v>
-      </c>
-      <c r="E318" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
-        <v>318</v>
-      </c>
-      <c r="B319" t="s">
-        <v>759</v>
-      </c>
-      <c r="C319" t="s">
-        <v>760</v>
       </c>
       <c r="D319" t="s">
         <v>79</v>
@@ -8271,139 +8261,141 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
+    <row r="320" spans="1:5">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>759</v>
+      </c>
+      <c r="C320" t="s">
+        <v>760</v>
+      </c>
+      <c r="D320" t="s">
+        <v>79</v>
+      </c>
+      <c r="E320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>761</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C321" t="s">
         <v>431</v>
       </c>
-      <c r="E320" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
+      <c r="D321" t="s"/>
+      <c r="E321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>532</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C322" t="s">
         <v>762</v>
       </c>
-      <c r="E321" t="s">
+      <c r="D322" t="s"/>
+      <c r="E322" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
+    <row r="323" spans="1:5">
+      <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>763</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C323" t="s">
         <v>764</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D323" t="s">
         <v>765</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E323" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
+    <row r="324" spans="1:5">
+      <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>766</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C324" t="s">
         <v>767</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D324" t="s">
         <v>768</v>
       </c>
-      <c r="E323" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
+      <c r="E324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>769</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C325" t="s">
         <v>770</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D325" t="s">
         <v>771</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E325" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="n">
         <v>324</v>
-      </c>
-      <c r="B325" t="s">
-        <v>772</v>
-      </c>
-      <c r="C325" t="s">
-        <v>214</v>
-      </c>
-      <c r="D325" t="s">
-        <v>255</v>
-      </c>
-      <c r="E325" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
-        <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>772</v>
       </c>
       <c r="C326" t="s">
-        <v>773</v>
+        <v>214</v>
       </c>
       <c r="D326" t="s">
-        <v>774</v>
+        <v>255</v>
       </c>
       <c r="E326" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
-        <v>326</v>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>772</v>
       </c>
       <c r="C327" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D327" t="s">
-        <v>40</v>
+        <v>774</v>
       </c>
       <c r="E327" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
-        <v>327</v>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>772</v>
@@ -8418,227 +8410,228 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>772</v>
+      </c>
+      <c r="C329" t="s">
+        <v>775</v>
+      </c>
+      <c r="D329" t="s">
+        <v>40</v>
+      </c>
+      <c r="E329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>776</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C330" t="s">
         <v>777</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D330" t="s">
         <v>429</v>
       </c>
-      <c r="E329" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
+      <c r="E330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>778</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C331" t="s">
         <v>779</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D331" t="s">
         <v>780</v>
       </c>
-      <c r="E330" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
+      <c r="E331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>781</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C332" t="s">
         <v>782</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D332" t="s">
         <v>783</v>
       </c>
-      <c r="E331" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
+      <c r="E332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>784</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C333" t="s">
         <v>785</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D333" t="s">
         <v>786</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E333" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>787</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C334" t="s">
         <v>788</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D334" t="s">
         <v>146</v>
       </c>
-      <c r="E333" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
+      <c r="E334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>789</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C335" t="s">
         <v>790</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D335" t="s">
         <v>791</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E335" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>792</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C336" t="s">
         <v>180</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D336" t="s">
         <v>95</v>
       </c>
-      <c r="E335" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
+      <c r="E336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>793</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C337" t="s">
         <v>794</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D337" t="s">
         <v>795</v>
       </c>
-      <c r="E336" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
+      <c r="E337" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>796</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C338" t="s">
         <v>797</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" t="s">
         <v>689</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E338" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
+    <row r="339" spans="1:5">
+      <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>798</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C339" t="s">
         <v>799</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D339" t="s">
         <v>795</v>
       </c>
-      <c r="E338" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
+      <c r="E339" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>800</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C340" t="s">
         <v>801</v>
       </c>
-      <c r="E339" t="s">
+      <c r="D340" t="s"/>
+      <c r="E340" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
+    <row r="341" spans="1:5">
+      <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>802</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C341" t="s">
         <v>803</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D341" t="s">
         <v>804</v>
       </c>
-      <c r="E340" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
+      <c r="E341" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="n">
         <v>340</v>
-      </c>
-      <c r="B341" t="s">
-        <v>805</v>
-      </c>
-      <c r="C341" t="s">
-        <v>417</v>
-      </c>
-      <c r="D341" t="s">
-        <v>806</v>
-      </c>
-      <c r="E341" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
-        <v>341</v>
       </c>
       <c r="B342" t="s">
         <v>805</v>
@@ -8647,100 +8640,100 @@
         <v>417</v>
       </c>
       <c r="D342" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E342" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>805</v>
+      </c>
+      <c r="C343" t="s">
+        <v>417</v>
+      </c>
+      <c r="D343" t="s">
+        <v>807</v>
+      </c>
+      <c r="E343" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>808</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C344" t="s">
         <v>809</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D344" t="s">
         <v>581</v>
       </c>
-      <c r="E343" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
+      <c r="E344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B345" t="s">
         <v>810</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C345" t="s">
         <v>811</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D345" t="s">
         <v>19</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E345" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
+    <row r="346" spans="1:5">
+      <c r="A346" s="1" t="n">
         <v>344</v>
-      </c>
-      <c r="B345" t="s">
-        <v>812</v>
-      </c>
-      <c r="C345" t="s">
-        <v>813</v>
-      </c>
-      <c r="D345" t="s">
-        <v>814</v>
-      </c>
-      <c r="E345" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>345</v>
       </c>
       <c r="B346" t="s">
         <v>812</v>
       </c>
       <c r="C346" t="s">
+        <v>813</v>
+      </c>
+      <c r="D346" t="s">
+        <v>814</v>
+      </c>
+      <c r="E346" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>812</v>
+      </c>
+      <c r="C347" t="s">
         <v>281</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D347" t="s">
         <v>815</v>
       </c>
-      <c r="E346" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
+      <c r="E347" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1" t="n">
         <v>346</v>
-      </c>
-      <c r="B347" t="s">
-        <v>593</v>
-      </c>
-      <c r="C347" t="s">
-        <v>78</v>
-      </c>
-      <c r="D347" t="s">
-        <v>53</v>
-      </c>
-      <c r="E347" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
-        <v>347</v>
       </c>
       <c r="B348" t="s">
         <v>593</v>
@@ -8755,43 +8748,43 @@
         <v>135</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
+    <row r="349" spans="1:5">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>593</v>
+      </c>
+      <c r="C349" t="s">
+        <v>78</v>
+      </c>
+      <c r="D349" t="s">
+        <v>53</v>
+      </c>
+      <c r="E349" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B350" t="s">
         <v>816</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C350" t="s">
         <v>817</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D350" t="s">
         <v>818</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E350" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
+    <row r="351" spans="1:5">
+      <c r="A351" s="1" t="n">
         <v>349</v>
-      </c>
-      <c r="B350" t="s">
-        <v>819</v>
-      </c>
-      <c r="C350" t="s">
-        <v>820</v>
-      </c>
-      <c r="D350" t="s">
-        <v>821</v>
-      </c>
-      <c r="E350" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
-        <v>350</v>
       </c>
       <c r="B351" t="s">
         <v>819</v>
@@ -8800,15 +8793,15 @@
         <v>820</v>
       </c>
       <c r="D351" t="s">
-        <v>178</v>
+        <v>821</v>
       </c>
       <c r="E351" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
-        <v>351</v>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
       </c>
       <c r="B352" t="s">
         <v>819</v>
@@ -8817,64 +8810,81 @@
         <v>820</v>
       </c>
       <c r="D352" t="s">
-        <v>822</v>
+        <v>178</v>
       </c>
       <c r="E352" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>819</v>
+      </c>
+      <c r="C353" t="s">
+        <v>820</v>
+      </c>
+      <c r="D353" t="s">
+        <v>822</v>
+      </c>
+      <c r="E353" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>823</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C354" t="s">
         <v>824</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D354" t="s">
         <v>825</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E354" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B355" t="s">
         <v>826</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C355" t="s">
         <v>827</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D355" t="s">
         <v>828</v>
       </c>
-      <c r="E354" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
+      <c r="E355" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B356" t="s">
         <v>829</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C356" t="s">
         <v>830</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D356" t="s">
         <v>831</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E356" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>